--- a/Drake/Honestly, Nevermind/Honestly, Nevermind_clusters.xlsx
+++ b/Drake/Honestly, Nevermind/Honestly, Nevermind_clusters.xlsx
@@ -532,17 +532,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>3.696748449988026</v>
+        <v>6.102851194541596</v>
       </c>
       <c r="L2" t="n">
-        <v>5.585433834926418</v>
+        <v>0.5916085714028494</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5916085714028494</v>
+        <v>3.624677319178606</v>
       </c>
     </row>
     <row r="3">
@@ -577,17 +577,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>7.250225978379846</v>
+        <v>1.063696928614594</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6300276691580737</v>
+        <v>4.842051578735129</v>
       </c>
       <c r="M3" t="n">
-        <v>4.842051578735129</v>
+        <v>1.634973934576444</v>
       </c>
     </row>
     <row r="4">
@@ -622,17 +622,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8.258971895430021</v>
       </c>
       <c r="L4" t="n">
-        <v>7.824175419363127</v>
+        <v>4.253692008297123</v>
       </c>
       <c r="M4" t="n">
-        <v>4.253692008297123</v>
+        <v>5.741171914823823</v>
       </c>
     </row>
     <row r="5">
@@ -667,17 +667,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6.052422764589156</v>
+        <v>2.336873793238938</v>
       </c>
       <c r="L5" t="n">
-        <v>1.814283768065102</v>
+        <v>3.546018226169086</v>
       </c>
       <c r="M5" t="n">
-        <v>3.546018226169086</v>
+        <v>0.3341671760076759</v>
       </c>
     </row>
     <row r="6">
@@ -712,17 +712,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>4.818904824120041</v>
+        <v>5.353738985594081</v>
       </c>
       <c r="L6" t="n">
-        <v>4.829931837473089</v>
+        <v>0.5916085714028478</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5916085714028478</v>
+        <v>3.11343999073195</v>
       </c>
     </row>
     <row r="7">
@@ -757,17 +757,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6.314029417019791</v>
+        <v>2.199674905128028</v>
       </c>
       <c r="L7" t="n">
-        <v>1.946165138164858</v>
+        <v>3.940474225390896</v>
       </c>
       <c r="M7" t="n">
-        <v>3.940474225390896</v>
+        <v>1.419042482369348</v>
       </c>
     </row>
     <row r="8">
@@ -802,17 +802,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7.172757682813698</v>
+        <v>2.335690778085194</v>
       </c>
       <c r="L8" t="n">
-        <v>1.845862409715228</v>
+        <v>3.763626716033079</v>
       </c>
       <c r="M8" t="n">
-        <v>3.763626716033079</v>
+        <v>1.846004353543114</v>
       </c>
     </row>
     <row r="9">
@@ -847,17 +847,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>8.405521015745505</v>
+        <v>0.1608036867002783</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7731272357998384</v>
+        <v>5.869280457288417</v>
       </c>
       <c r="M9" t="n">
-        <v>5.869280457288417</v>
+        <v>2.813303029349541</v>
       </c>
     </row>
     <row r="10">
@@ -892,17 +892,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>8.112962815407164</v>
+        <v>0.1608036867002783</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4878811910510986</v>
+        <v>5.550727428912192</v>
       </c>
       <c r="M10" t="n">
-        <v>5.550727428912192</v>
+        <v>2.499239838012182</v>
       </c>
     </row>
     <row r="11">
@@ -937,17 +937,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7.739870441990364</v>
+        <v>0.6672010558032498</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09268655068119343</v>
+        <v>5.134563769197775</v>
       </c>
       <c r="M11" t="n">
-        <v>5.134563769197775</v>
+        <v>2.055827481499346</v>
       </c>
     </row>
     <row r="12">
@@ -982,17 +982,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7.72667882167615</v>
+        <v>1.699721241582034</v>
       </c>
       <c r="L12" t="n">
-        <v>1.147171127294377</v>
+        <v>4.695990050711024</v>
       </c>
       <c r="M12" t="n">
-        <v>4.695990050711024</v>
+        <v>2.054907573282544</v>
       </c>
     </row>
     <row r="13">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>5.432644291028867</v>
+        <v>2.978508742484502</v>
       </c>
       <c r="L13" t="n">
-        <v>2.453982781746235</v>
+        <v>3.127440324492327</v>
       </c>
       <c r="M13" t="n">
-        <v>3.127440324492327</v>
+        <v>0.3341671760076759</v>
       </c>
     </row>
     <row r="14">
@@ -1072,17 +1072,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8.492034035780081</v>
+        <v>2.162637894644079</v>
       </c>
       <c r="L14" t="n">
-        <v>2.539712602882352</v>
+        <v>6.076234495339254</v>
       </c>
       <c r="M14" t="n">
-        <v>6.076234495339254</v>
+        <v>3.672218002500586</v>
       </c>
     </row>
   </sheetData>
